--- a/static/download/2021/RP3_ERT_SU_2021_Jan_Apr.xlsx
+++ b/static/download/2021/RP3_ERT_SU_2021_Jan_Apr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Data source</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Switzerland</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>Change date</t>
@@ -632,35 +629,35 @@
         <v>21</v>
       </c>
       <c r="B6" s="23">
-        <f>sum(B7:B36)</f>
-        <v>26339991.7</v>
+        <f>sum(B7:B35)</f>
+        <v>23830180.3</v>
       </c>
       <c r="C6" s="23">
-        <f t="shared" ref="C6:C36" si="1">B6/C$4</f>
-        <v>217685.8818</v>
+        <f t="shared" ref="C6:C35" si="1">B6/C$4</f>
+        <v>196943.6388</v>
       </c>
       <c r="D6" s="23">
-        <f>sum(D7:D36)</f>
-        <v>12997035.02</v>
+        <f>sum(D7:D35)</f>
+        <v>11932316.52</v>
       </c>
       <c r="E6" s="23">
         <v>1.0</v>
       </c>
       <c r="F6" s="24">
-        <f t="shared" ref="F6:F36" si="2">E6/C6-1</f>
-        <v>-0.9999954062</v>
+        <f t="shared" ref="F6:F35" si="2">E6/C6-1</f>
+        <v>-0.9999949224</v>
       </c>
       <c r="G6" s="23">
-        <f>sum(G7:G36)</f>
-        <v>42143240.41</v>
+        <f>sum(G7:G35)</f>
+        <v>38381450.39</v>
       </c>
       <c r="H6" s="23">
-        <f t="shared" ref="H6:H36" si="3">G6/H$4</f>
-        <v>351193.6701</v>
+        <f t="shared" ref="H6:H35" si="3">G6/H$4</f>
+        <v>319845.4199</v>
       </c>
       <c r="I6" s="24">
-        <f t="shared" ref="I6:I36" si="4">D6/G6-1</f>
-        <v>-0.6915985839</v>
+        <f t="shared" ref="I6:I35" si="4">D6/G6-1</f>
+        <v>-0.6891124124</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -678,7 +675,7 @@
         <v>302755.89</v>
       </c>
       <c r="E7" s="23">
-        <f t="shared" ref="E7:E36" si="5">D7/E$4</f>
+        <f t="shared" ref="E7:E35" si="5">D7/E$4</f>
         <v>2522.96575</v>
       </c>
       <c r="F7" s="24">
@@ -1647,40 +1644,6 @@
       <c r="I35" s="24">
         <f t="shared" si="4"/>
         <v>-0.7424624719</v>
-      </c>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="25">
-        <v>2509811.4</v>
-      </c>
-      <c r="C36" s="23">
-        <f t="shared" si="1"/>
-        <v>20742.24298</v>
-      </c>
-      <c r="D36" s="25">
-        <v>1064718.5</v>
-      </c>
-      <c r="E36" s="23">
-        <f t="shared" si="5"/>
-        <v>8872.654167</v>
-      </c>
-      <c r="F36" s="24">
-        <f t="shared" si="2"/>
-        <v>-0.5722422991</v>
-      </c>
-      <c r="G36" s="25">
-        <v>3761790.02</v>
-      </c>
-      <c r="H36" s="23">
-        <f t="shared" si="3"/>
-        <v>31348.25017</v>
-      </c>
-      <c r="I36" s="24">
-        <f t="shared" si="4"/>
-        <v>-0.7169649304</v>
       </c>
     </row>
   </sheetData>
@@ -1706,16 +1669,16 @@
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
       <c r="A1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
